--- a/评审PPT/项目计划/SE2019春-G11-第三周任务以及绩效评价.xlsx
+++ b/评审PPT/项目计划/SE2019春-G11-第三周任务以及绩效评价.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorenzo\Desktop\zucc\软件工程基础SE2019春\ZUCCLazyBone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\软件工程\ZUCC-Lazy-Bone\评审PPT\项目计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ACCF2FC-5388-40F2-BBD5-67EC7E745E64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="20180323" sheetId="4" r:id="rId1"/>
@@ -67,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目计划书“支持条件”、“预算”、“关键问题”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邓国灏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,30 +74,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目计划书“项目概述”、“项目组织团队”、“实施计划”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李帝江</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目计划书“引言”并整合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>制作项目计划ppt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3.14会议记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目计划书“支持条件”、“预算”、“关键问题”部分文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目计划书“项目概述”、“项目组织团队”、“实施计划”部分文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目计划书“引言”部分文档并整合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,23 +506,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" customWidth="1"/>
-    <col min="2" max="2" width="51.08203125" customWidth="1"/>
-    <col min="4" max="4" width="6.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.58203125" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="51.125" customWidth="1"/>
+    <col min="4" max="4" width="6.875" customWidth="1"/>
+    <col min="5" max="5" width="4.625" customWidth="1"/>
     <col min="6" max="6" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
@@ -531,7 +530,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -548,7 +547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -565,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -583,78 +582,78 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -665,13 +664,13 @@
         <v>4</v>
       </c>
       <c r="F11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -684,7 +683,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
   </sheetData>
